--- a/classfiers/greedy/svm/greedy-svm-linear-results.xlsx
+++ b/classfiers/greedy/svm/greedy-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9942028985507246</v>
+        <v>0.9350649350649352</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1538461538461538</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9478260869565217</v>
+        <v>0.9639249639249639</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.8138528138528138</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4444444444444445</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9913043478260869</v>
+        <v>0.9057971014492753</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4771428571428571</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4796581196581197</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9866666666666666</v>
+        <v>0.8934249325553673</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/greedy/svm/greedy-svm-linear-results.xlsx
+++ b/classfiers/greedy/svm/greedy-svm-linear-results.xlsx
@@ -476,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9350649350649352</v>
+        <v>0.9857142857142857</v>
       </c>
     </row>
     <row r="3">
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9639249639249639</v>
+        <v>0.9714285714285715</v>
       </c>
     </row>
     <row r="4">
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9728867623604466</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8138528138528138</v>
+        <v>0.7799043062200957</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9057971014492753</v>
+        <v>0.9824561403508772</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8934249325553673</v>
+        <v>0.9384780132148555</v>
       </c>
     </row>
   </sheetData>
